--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3331.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3331.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8833785765847919</v>
+        <v>2.341936826705933</v>
       </c>
       <c r="B1">
-        <v>1.495193814970754</v>
+        <v>4.428929805755615</v>
       </c>
       <c r="C1">
-        <v>5.224580559351688</v>
+        <v>3.302167177200317</v>
       </c>
       <c r="D1">
-        <v>4.792011930531434</v>
+        <v>0.8947980403900146</v>
       </c>
       <c r="E1">
-        <v>1.636132323670615</v>
+        <v>0.4714532494544983</v>
       </c>
     </row>
   </sheetData>
